--- a/2018_2019/Tests/Test 2 solutions/IEP scores 20182019 test 2.xlsx
+++ b/2018_2019/Tests/Test 2 solutions/IEP scores 20182019 test 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12090" yWindow="0" windowWidth="11640" windowHeight="7005"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="11640" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -640,8 +640,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00000000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -757,7 +758,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -794,6 +795,7 @@
     <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1104,7 +1106,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,18 +1118,18 @@
     <col min="5" max="5" width="8.5703125" style="7" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" style="4" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="36" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="14"/>
     <col min="10" max="10" width="13.5703125" style="14" customWidth="1"/>
     <col min="11" max="21" width="9.140625" style="14"/>
     <col min="22" max="22" width="11.140625" style="18" customWidth="1"/>
     <col min="23" max="23" width="11.42578125" style="18" customWidth="1"/>
-    <col min="24" max="28" width="9.140625" style="18"/>
-    <col min="29" max="29" width="9.140625" style="19"/>
-    <col min="30" max="30" width="12.5703125" style="19" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" style="19" customWidth="1"/>
-    <col min="32" max="37" width="9.140625" style="19"/>
-    <col min="38" max="39" width="9.140625" style="20"/>
+    <col min="24" max="24" width="9.140625" style="19"/>
+    <col min="25" max="25" width="12.5703125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" style="19" customWidth="1"/>
+    <col min="27" max="32" width="9.140625" style="19"/>
+    <col min="33" max="34" width="9.140625" style="20"/>
+    <col min="35" max="39" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -1185,53 +1187,53 @@
       <c r="W1" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z1" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE1" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF1" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AG1" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI1" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="AK1" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AL1" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AM1" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF1" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="AJ1" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="AK1" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AL1" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="AM1" s="17" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -1250,8 +1252,8 @@
       <c r="F2" s="4">
         <v>16.5</v>
       </c>
-      <c r="H2" s="7">
-        <f xml:space="preserve"> MIN(SUM(I2:AM2)/26*20,20)</f>
+      <c r="H2" s="36">
+        <f xml:space="preserve"> MIN((SUM(I2:AH2)/26*20) + SUM(AI2:AM2),20)</f>
         <v>11.346153846153847</v>
       </c>
       <c r="I2" s="14">
@@ -1299,53 +1301,53 @@
       <c r="W2" s="18">
         <v>1</v>
       </c>
-      <c r="X2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="18">
-        <v>0</v>
+      <c r="X2" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="19">
         <v>0</v>
       </c>
       <c r="AE2" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="19">
         <v>0</v>
       </c>
-      <c r="AG2" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="20">
-        <v>1</v>
+      <c r="AG2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
@@ -1367,8 +1369,8 @@
       <c r="F3" s="4">
         <v>19</v>
       </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H58" si="0" xml:space="preserve"> MIN(SUM(I3:AM3)/26*20,20)</f>
+      <c r="H3" s="36">
+        <f t="shared" ref="H3:H58" si="0" xml:space="preserve"> MIN((SUM(I3:AH3)/26*20) + SUM(AI3:AM3),20)</f>
         <v>13.461538461538463</v>
       </c>
       <c r="I3" s="14">
@@ -1416,53 +1418,53 @@
       <c r="W3" s="18">
         <v>1</v>
       </c>
-      <c r="X3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>0</v>
+      <c r="X3" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="19">
         <v>0.25</v>
       </c>
-      <c r="AD3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AG3" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AH3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AL3" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="20">
-        <v>1</v>
+      <c r="AG3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1487,7 @@
       <c r="G4" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1534,19 +1536,19 @@
       <c r="W4" s="22">
         <v>0</v>
       </c>
-      <c r="X4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="22">
+      <c r="X4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="23">
         <v>0</v>
       </c>
       <c r="AC4" s="23">
@@ -1561,25 +1563,25 @@
       <c r="AF4" s="23">
         <v>0</v>
       </c>
-      <c r="AG4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="24">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="24">
+      <c r="AG4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1599,7 +1601,7 @@
       <c r="F5" s="4">
         <v>17</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="36">
         <f t="shared" si="0"/>
         <v>10.384615384615385</v>
       </c>
@@ -1648,53 +1650,53 @@
       <c r="W5" s="18">
         <v>1</v>
       </c>
-      <c r="X5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>0</v>
+      <c r="X5" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC5" s="19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="19">
         <v>0</v>
       </c>
       <c r="AE5" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="19">
         <v>0</v>
       </c>
-      <c r="AG5" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="20">
-        <v>1</v>
+      <c r="AG5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1717,7 +1719,7 @@
         <v>16.5</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>15.961538461538463</v>
       </c>
@@ -1766,53 +1768,53 @@
       <c r="W6" s="18">
         <v>1</v>
       </c>
-      <c r="X6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="18">
-        <v>0</v>
+      <c r="X6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="19">
+        <v>1</v>
       </c>
       <c r="AC6" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD6" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="19">
         <v>0.25</v>
       </c>
-      <c r="AL6" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM6" s="20">
-        <v>1</v>
+      <c r="AG6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -1834,7 +1836,7 @@
       <c r="F7" s="4">
         <v>14.5</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>12.884615384615385</v>
       </c>
@@ -1883,53 +1885,53 @@
       <c r="W7" s="18">
         <v>1</v>
       </c>
-      <c r="X7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="18">
-        <v>0</v>
+      <c r="X7" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC7" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="19">
         <v>0</v>
       </c>
       <c r="AE7" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM7" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
@@ -1948,7 +1950,7 @@
       <c r="F8" s="4">
         <v>15</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
         <v>15.576923076923077</v>
       </c>
@@ -1997,53 +1999,53 @@
       <c r="W8" s="18">
         <v>1</v>
       </c>
-      <c r="X8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="18">
-        <v>0</v>
+      <c r="X8" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="19">
+        <v>1</v>
       </c>
       <c r="AC8" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8" s="19">
         <v>0</v>
       </c>
       <c r="AE8" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
@@ -2062,7 +2064,7 @@
       <c r="F9" s="4">
         <v>12</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
         <v>10.384615384615385</v>
       </c>
@@ -2111,53 +2113,53 @@
       <c r="W9" s="18">
         <v>1</v>
       </c>
-      <c r="X9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="18">
+      <c r="X9" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="19">
         <v>0</v>
       </c>
       <c r="AC9" s="19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD9" s="19">
         <v>0</v>
       </c>
       <c r="AE9" s="19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AL9" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM9" s="20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AG9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
@@ -2179,7 +2181,7 @@
       <c r="F10" s="4">
         <v>18.5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2228,20 +2230,20 @@
       <c r="W10" s="18">
         <v>1</v>
       </c>
-      <c r="X10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="18">
-        <v>0</v>
+      <c r="X10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="19">
+        <v>1</v>
       </c>
       <c r="AC10" s="19">
         <v>1</v>
@@ -2255,26 +2257,26 @@
       <c r="AF10" s="19">
         <v>1</v>
       </c>
-      <c r="AG10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK10" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM10" s="20">
-        <v>1</v>
+      <c r="AG10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
@@ -2296,7 +2298,7 @@
       <c r="F11" s="4">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>16.923076923076923</v>
       </c>
@@ -2345,53 +2347,53 @@
       <c r="W11" s="18">
         <v>1</v>
       </c>
-      <c r="X11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="18">
-        <v>0</v>
+      <c r="X11" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="19">
+        <v>1</v>
       </c>
       <c r="AC11" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="19">
         <v>0.25</v>
       </c>
-      <c r="AL11" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM11" s="20">
-        <v>1</v>
+      <c r="AG11" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
@@ -2413,7 +2415,7 @@
       <c r="F12" s="4">
         <v>20</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -2462,19 +2464,19 @@
       <c r="W12" s="18">
         <v>1</v>
       </c>
-      <c r="X12" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y12" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="18">
+      <c r="X12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="19">
         <v>1</v>
       </c>
       <c r="AC12" s="19">
@@ -2487,27 +2489,27 @@
         <v>1</v>
       </c>
       <c r="AF12" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH12" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK12" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AL12" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM12" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="AG12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2530,7 +2532,7 @@
       <c r="F13" s="4">
         <v>20</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="36">
         <f t="shared" si="0"/>
         <v>12.692307692307692</v>
       </c>
@@ -2579,53 +2581,53 @@
       <c r="W13" s="18">
         <v>0.5</v>
       </c>
-      <c r="X13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="18">
-        <v>0</v>
+      <c r="X13" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC13" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="19">
         <v>0</v>
       </c>
       <c r="AE13" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM13" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2648,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="7">
+      <c r="H14" s="36">
         <f t="shared" si="0"/>
         <v>9.2307692307692317</v>
       </c>
@@ -2697,20 +2699,20 @@
       <c r="W14" s="18">
         <v>0</v>
       </c>
-      <c r="X14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="18">
-        <v>0</v>
+      <c r="X14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC14" s="19">
         <v>0</v>
@@ -2724,26 +2726,26 @@
       <c r="AF14" s="19">
         <v>0</v>
       </c>
-      <c r="AG14" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM14" s="20">
-        <v>1</v>
+      <c r="AG14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
@@ -2762,7 +2764,7 @@
       <c r="F15" s="4">
         <v>16.5</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="36">
         <f t="shared" si="0"/>
         <v>8.6538461538461533</v>
       </c>
@@ -2811,19 +2813,19 @@
       <c r="W15" s="18">
         <v>1</v>
       </c>
-      <c r="X15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="18">
+      <c r="X15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="19">
         <v>0</v>
       </c>
       <c r="AC15" s="19">
@@ -2838,26 +2840,26 @@
       <c r="AF15" s="19">
         <v>0</v>
       </c>
-      <c r="AG15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM15" s="20">
-        <v>1</v>
+      <c r="AG15" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
@@ -2879,7 +2881,7 @@
       <c r="F16" s="4">
         <v>7.5</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="36">
         <f t="shared" si="0"/>
         <v>8.0769230769230766</v>
       </c>
@@ -2928,23 +2930,23 @@
       <c r="W16" s="18">
         <v>0</v>
       </c>
-      <c r="X16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="18">
+      <c r="X16" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="19">
         <v>0</v>
       </c>
       <c r="AC16" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="19">
         <v>0</v>
@@ -2955,26 +2957,26 @@
       <c r="AF16" s="19">
         <v>0</v>
       </c>
-      <c r="AG16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM16" s="20">
-        <v>1</v>
+      <c r="AG16" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -2997,7 +2999,7 @@
         <v>19.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7">
+      <c r="H17" s="36">
         <f t="shared" si="0"/>
         <v>12.884615384615385</v>
       </c>
@@ -3046,53 +3048,53 @@
       <c r="W17" s="22">
         <v>1</v>
       </c>
-      <c r="X17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="22">
-        <v>0</v>
+      <c r="X17" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="Y17" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="23">
+        <v>0.75</v>
       </c>
       <c r="AC17" s="23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="23">
         <v>0</v>
       </c>
       <c r="AE17" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" s="23">
-        <v>1</v>
-      </c>
-      <c r="AG17" s="23">
-        <v>0.75</v>
-      </c>
-      <c r="AH17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="24">
-        <v>1</v>
-      </c>
-      <c r="AM17" s="24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
@@ -3111,7 +3113,7 @@
       <c r="F18" s="4">
         <v>13</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="36">
         <f t="shared" si="0"/>
         <v>9.0384615384615383</v>
       </c>
@@ -3160,19 +3162,19 @@
       <c r="W18" s="18">
         <v>1</v>
       </c>
-      <c r="X18" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="18">
+      <c r="X18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="19">
         <v>0</v>
       </c>
       <c r="AC18" s="19">
@@ -3187,26 +3189,26 @@
       <c r="AF18" s="19">
         <v>0</v>
       </c>
-      <c r="AG18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM18" s="20">
-        <v>1</v>
+      <c r="AG18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
@@ -3228,7 +3230,7 @@
       <c r="F19" s="4">
         <v>15.5</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="36">
         <f t="shared" si="0"/>
         <v>19.23076923076923</v>
       </c>
@@ -3277,53 +3279,53 @@
       <c r="W19" s="18">
         <v>1</v>
       </c>
-      <c r="X19" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="18">
-        <v>0</v>
+      <c r="X19" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="19">
+        <v>1</v>
       </c>
       <c r="AC19" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD19" s="19">
         <v>1</v>
       </c>
       <c r="AE19" s="19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AF19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH19" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AI19" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ19" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AK19" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AL19" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AG19" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
@@ -3345,7 +3347,7 @@
       <c r="F20" s="4">
         <v>19</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="36">
         <f t="shared" si="0"/>
         <v>9.4230769230769234</v>
       </c>
@@ -3394,53 +3396,53 @@
       <c r="W20" s="18">
         <v>0</v>
       </c>
-      <c r="X20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="18">
+      <c r="X20" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="19">
         <v>0</v>
       </c>
       <c r="AC20" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD20" s="19">
         <v>0</v>
       </c>
       <c r="AE20" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20" s="19">
         <v>0</v>
       </c>
-      <c r="AG20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="20">
-        <v>1</v>
+      <c r="AG20" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3463,7 +3465,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="7"/>
-      <c r="H21" s="7">
+      <c r="H21" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -3512,53 +3514,53 @@
       <c r="W21" s="18">
         <v>0</v>
       </c>
-      <c r="X21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="18">
+      <c r="X21" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="19">
         <v>0</v>
       </c>
       <c r="AC21" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="19">
         <v>0</v>
       </c>
       <c r="AE21" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="19">
         <v>0</v>
       </c>
-      <c r="AG21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK21" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="20">
-        <v>1</v>
+      <c r="AG21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -3581,7 +3583,7 @@
         <v>19</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="28">
+      <c r="H22" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3600,22 +3602,22 @@
       <c r="U22" s="30"/>
       <c r="V22" s="31"/>
       <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
       <c r="AC22" s="32"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="33"/>
-      <c r="AM22" s="33"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="33"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -3636,7 +3638,7 @@
       <c r="F23" s="4">
         <v>17</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="36">
         <f t="shared" si="0"/>
         <v>14.423076923076923</v>
       </c>
@@ -3685,53 +3687,53 @@
       <c r="W23" s="18">
         <v>0</v>
       </c>
-      <c r="X23" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="18">
-        <v>0</v>
+      <c r="X23" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Y23" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Z23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA23" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="AB23" s="19">
+        <v>0.75</v>
       </c>
       <c r="AC23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="19">
         <v>0.25</v>
       </c>
-      <c r="AD23" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AE23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AG23" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AH23" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ23" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AL23" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM23" s="20">
-        <v>1</v>
+      <c r="AG23" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
@@ -3753,7 +3755,7 @@
       <c r="F24" s="4">
         <v>14.5</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="36">
         <f t="shared" si="0"/>
         <v>10.192307692307692</v>
       </c>
@@ -3802,53 +3804,53 @@
       <c r="W24" s="18">
         <v>0</v>
       </c>
-      <c r="X24" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="18">
-        <v>0</v>
+      <c r="X24" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Y24" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AA24" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="AB24" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC24" s="19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="19">
         <v>0</v>
       </c>
       <c r="AE24" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AG24" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH24" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM24" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG24" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
@@ -3869,7 +3871,7 @@
         <v>19.5</v>
       </c>
       <c r="G25" s="4"/>
-      <c r="H25" s="7">
+      <c r="H25" s="36">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -3918,26 +3920,26 @@
       <c r="W25" s="18">
         <v>1</v>
       </c>
-      <c r="X25" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="18">
-        <v>0</v>
+      <c r="X25" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Z25" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="AB25" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC25" s="19">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AD25" s="19">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="AE25" s="19">
         <v>1</v>
@@ -3945,26 +3947,26 @@
       <c r="AF25" s="19">
         <v>0.25</v>
       </c>
-      <c r="AG25" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH25" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AI25" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ25" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AL25" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM25" s="20">
-        <v>1</v>
+      <c r="AG25" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
@@ -3986,7 +3988,7 @@
       <c r="F26" s="4">
         <v>19</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -4035,20 +4037,20 @@
       <c r="W26" s="18">
         <v>1</v>
       </c>
-      <c r="X26" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="18">
-        <v>0</v>
+      <c r="X26" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB26" s="19">
+        <v>1</v>
       </c>
       <c r="AC26" s="19">
         <v>1</v>
@@ -4062,26 +4064,26 @@
       <c r="AF26" s="19">
         <v>1</v>
       </c>
-      <c r="AG26" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI26" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ26" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL26" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM26" s="20">
-        <v>1</v>
+      <c r="AG26" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:39" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -4104,7 +4106,7 @@
         <v>18.5</v>
       </c>
       <c r="G27" s="28"/>
-      <c r="H27" s="28">
+      <c r="H27" s="36">
         <f t="shared" si="0"/>
         <v>14.615384615384615</v>
       </c>
@@ -4153,53 +4155,53 @@
       <c r="W27" s="31">
         <v>1</v>
       </c>
-      <c r="X27" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="31">
-        <v>0</v>
+      <c r="X27" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="32">
+        <v>0.25</v>
       </c>
       <c r="AC27" s="32">
         <v>1</v>
       </c>
       <c r="AD27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="32">
         <v>0</v>
       </c>
-      <c r="AG27" s="32">
-        <v>0.25</v>
-      </c>
-      <c r="AH27" s="32">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="32">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="32">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="32">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="33">
-        <v>1</v>
-      </c>
-      <c r="AM27" s="33">
-        <v>1</v>
+      <c r="AG27" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
@@ -4221,7 +4223,7 @@
       <c r="F28" s="4">
         <v>15.5</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="36">
         <f t="shared" si="0"/>
         <v>11.346153846153847</v>
       </c>
@@ -4270,53 +4272,53 @@
       <c r="W28" s="18">
         <v>1</v>
       </c>
-      <c r="X28" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="18">
-        <v>0</v>
+      <c r="X28" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="Y28" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC28" s="19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="19">
         <v>0</v>
       </c>
       <c r="AE28" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28" s="19">
         <v>0</v>
       </c>
-      <c r="AG28" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AH28" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM28" s="20">
-        <v>1</v>
+      <c r="AG28" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
@@ -4338,7 +4340,7 @@
       <c r="F29" s="4">
         <v>18.5</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="36">
         <f t="shared" si="0"/>
         <v>19.038461538461537</v>
       </c>
@@ -4387,23 +4389,23 @@
       <c r="W29" s="18">
         <v>1</v>
       </c>
-      <c r="X29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="18">
-        <v>0</v>
+      <c r="X29" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="19">
+        <v>1</v>
       </c>
       <c r="AC29" s="19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD29" s="19">
         <v>1</v>
@@ -4412,28 +4414,28 @@
         <v>1</v>
       </c>
       <c r="AF29" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG29" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AI29" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ29" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK29" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AL29" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM29" s="20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AG29" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
@@ -4455,7 +4457,7 @@
       <c r="F30" s="4">
         <v>18</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="36">
         <f t="shared" si="0"/>
         <v>17.307692307692307</v>
       </c>
@@ -4504,53 +4506,53 @@
       <c r="W30" s="18">
         <v>0.5</v>
       </c>
-      <c r="X30" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="18">
-        <v>0</v>
+      <c r="X30" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Z30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA30" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB30" s="19">
+        <v>1</v>
       </c>
       <c r="AC30" s="19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD30" s="19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AE30" s="19">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AF30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH30" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AI30" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="19">
         <v>0.25</v>
       </c>
-      <c r="AK30" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AL30" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM30" s="20">
-        <v>1</v>
+      <c r="AG30" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
@@ -4569,7 +4571,7 @@
       <c r="F31" s="4">
         <v>13.5</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="36">
         <f t="shared" si="0"/>
         <v>15.576923076923077</v>
       </c>
@@ -4618,53 +4620,53 @@
       <c r="W31" s="18">
         <v>1</v>
       </c>
-      <c r="X31" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="18">
-        <v>0</v>
+      <c r="X31" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="19">
+        <v>1</v>
       </c>
       <c r="AC31" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG31" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM31" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG31" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
@@ -4683,7 +4685,7 @@
       <c r="F32" s="4">
         <v>20</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="36">
         <f t="shared" si="0"/>
         <v>12.692307692307692</v>
       </c>
@@ -4732,53 +4734,53 @@
       <c r="W32" s="18">
         <v>1</v>
       </c>
-      <c r="X32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="18">
-        <v>0</v>
+      <c r="X32" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="19">
+        <v>1</v>
       </c>
       <c r="AC32" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="19">
         <v>0</v>
       </c>
       <c r="AE32" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="19">
         <v>0</v>
       </c>
-      <c r="AG32" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM32" s="20">
-        <v>1</v>
+      <c r="AG32" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
@@ -4797,7 +4799,7 @@
       <c r="F33" s="4">
         <v>16</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="36">
         <f t="shared" si="0"/>
         <v>11.346153846153847</v>
       </c>
@@ -4846,53 +4848,53 @@
       <c r="W33" s="18">
         <v>1</v>
       </c>
-      <c r="X33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="18">
-        <v>0</v>
+      <c r="X33" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y33" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC33" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="19">
         <v>0</v>
       </c>
       <c r="AE33" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="19">
         <v>0</v>
       </c>
-      <c r="AG33" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK33" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM33" s="20">
-        <v>1</v>
+      <c r="AG33" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:39" x14ac:dyDescent="0.25">
@@ -4913,7 +4915,7 @@
         <v>19</v>
       </c>
       <c r="G34" s="10"/>
-      <c r="H34" s="7">
+      <c r="H34" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4962,19 +4964,19 @@
       <c r="W34" s="18">
         <v>0</v>
       </c>
-      <c r="X34" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="18">
+      <c r="X34" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="19">
         <v>0</v>
       </c>
       <c r="AC34" s="19">
@@ -4989,25 +4991,25 @@
       <c r="AF34" s="19">
         <v>0</v>
       </c>
-      <c r="AG34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AM34" s="20">
+      <c r="AG34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="18">
         <v>0</v>
       </c>
     </row>
@@ -5029,7 +5031,7 @@
         <v>17.5</v>
       </c>
       <c r="G35" s="7"/>
-      <c r="H35" s="7">
+      <c r="H35" s="36">
         <f t="shared" si="0"/>
         <v>14.615384615384615</v>
       </c>
@@ -5078,53 +5080,53 @@
       <c r="W35" s="18">
         <v>0</v>
       </c>
-      <c r="X35" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="18">
-        <v>0</v>
+      <c r="X35" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Z35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="19">
+        <v>1</v>
       </c>
       <c r="AC35" s="19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD35" s="19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG35" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH35" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AI35" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM35" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG35" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH35" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:39" s="25" customFormat="1" x14ac:dyDescent="0.25">
@@ -5145,7 +5147,7 @@
         <v>15</v>
       </c>
       <c r="G36" s="7"/>
-      <c r="H36" s="7">
+      <c r="H36" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5194,19 +5196,19 @@
       <c r="W36" s="22">
         <v>0</v>
       </c>
-      <c r="X36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="22">
+      <c r="X36" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="23">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="23">
         <v>0</v>
       </c>
       <c r="AC36" s="23">
@@ -5221,25 +5223,25 @@
       <c r="AF36" s="23">
         <v>0</v>
       </c>
-      <c r="AG36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="24">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="24">
+      <c r="AG36" s="24">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="24">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="22">
         <v>0</v>
       </c>
     </row>
@@ -5262,7 +5264,7 @@
       <c r="F37" s="4">
         <v>15</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="36">
         <f t="shared" si="0"/>
         <v>13.269230769230768</v>
       </c>
@@ -5311,53 +5313,53 @@
       <c r="W37" s="18">
         <v>1</v>
       </c>
-      <c r="X37" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="18">
-        <v>0</v>
+      <c r="X37" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y37" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC37" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD37" s="19">
         <v>0</v>
       </c>
       <c r="AE37" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF37" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AH37" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL37" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM37" s="20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG37" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
@@ -5379,7 +5381,7 @@
       <c r="F38" s="4">
         <v>19</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="36">
         <f t="shared" si="0"/>
         <v>17.5</v>
       </c>
@@ -5428,53 +5430,53 @@
       <c r="W38" s="18">
         <v>1</v>
       </c>
-      <c r="X38" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="18">
-        <v>0</v>
+      <c r="X38" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Y38" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Z38" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="19">
+        <v>0.75</v>
       </c>
       <c r="AC38" s="19">
         <v>0.75</v>
       </c>
       <c r="AD38" s="19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" s="19">
         <v>1</v>
       </c>
-      <c r="AG38" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AH38" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AI38" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM38" s="20">
-        <v>1</v>
+      <c r="AG38" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -5495,7 +5497,7 @@
         <v>17.5</v>
       </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="28">
+      <c r="H39" s="36">
         <f t="shared" si="0"/>
         <v>19.038461538461537</v>
       </c>
@@ -5544,20 +5546,20 @@
       <c r="W39" s="31">
         <v>1</v>
       </c>
-      <c r="X39" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="31">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="31">
-        <v>0</v>
+      <c r="X39" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="32">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="32">
+        <v>1</v>
       </c>
       <c r="AC39" s="32">
         <v>1</v>
@@ -5569,28 +5571,28 @@
         <v>1</v>
       </c>
       <c r="AF39" s="32">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="32">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="32">
-        <v>1</v>
-      </c>
-      <c r="AI39" s="32">
-        <v>1</v>
-      </c>
-      <c r="AJ39" s="32">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="32">
         <v>0.5</v>
       </c>
-      <c r="AL39" s="33">
-        <v>1</v>
-      </c>
-      <c r="AM39" s="33">
-        <v>1</v>
+      <c r="AG39" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI39" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="31">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:39" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -5611,7 +5613,7 @@
         <v>14</v>
       </c>
       <c r="G40" s="7"/>
-      <c r="H40" s="7">
+      <c r="H40" s="36">
         <f t="shared" si="0"/>
         <v>17.115384615384613</v>
       </c>
@@ -5660,53 +5662,53 @@
       <c r="W40" s="22">
         <v>1</v>
       </c>
-      <c r="X40" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="22">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="22">
-        <v>0</v>
+      <c r="X40" s="23">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="23">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="23">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="23">
+        <v>0.25</v>
       </c>
       <c r="AC40" s="23">
         <v>1</v>
       </c>
       <c r="AD40" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="23">
-        <v>1</v>
-      </c>
-      <c r="AG40" s="23">
-        <v>0.25</v>
-      </c>
-      <c r="AH40" s="23">
-        <v>1</v>
-      </c>
-      <c r="AI40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="23">
-        <v>0</v>
-      </c>
-      <c r="AL40" s="24">
-        <v>1</v>
-      </c>
-      <c r="AM40" s="24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="24">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="22">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="22">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
@@ -5728,7 +5730,7 @@
       <c r="F41" s="4">
         <v>20</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="36">
         <f t="shared" si="0"/>
         <v>19.423076923076923</v>
       </c>
@@ -5777,20 +5779,20 @@
       <c r="W41" s="18">
         <v>1</v>
       </c>
-      <c r="X41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="18">
-        <v>0</v>
+      <c r="X41" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="19">
+        <v>1</v>
       </c>
       <c r="AC41" s="19">
         <v>1</v>
@@ -5802,28 +5804,28 @@
         <v>1</v>
       </c>
       <c r="AF41" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG41" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH41" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI41" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ41" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK41" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AL41" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM41" s="20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AG41" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5844,7 +5846,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="7"/>
-      <c r="H42" s="7">
+      <c r="H42" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -5893,23 +5895,23 @@
       <c r="W42" s="18">
         <v>1</v>
       </c>
-      <c r="X42" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y42" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="18">
-        <v>0</v>
+      <c r="X42" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y42" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA42" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC42" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AD42" s="19">
         <v>1</v>
@@ -5920,26 +5922,26 @@
       <c r="AF42" s="19">
         <v>1</v>
       </c>
-      <c r="AG42" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AH42" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI42" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ42" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM42" s="20">
-        <v>1</v>
+      <c r="AG42" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
@@ -5961,7 +5963,7 @@
       <c r="F43" s="4">
         <v>13.5</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="36">
         <f t="shared" si="0"/>
         <v>14.230769230769232</v>
       </c>
@@ -6010,53 +6012,53 @@
       <c r="W43" s="18">
         <v>1</v>
       </c>
-      <c r="X43" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="18">
-        <v>0</v>
+      <c r="X43" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC43" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43" s="19">
         <v>0</v>
       </c>
       <c r="AE43" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AH43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK43" s="19">
         <v>0.25</v>
       </c>
-      <c r="AL43" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM43" s="20">
-        <v>1</v>
+      <c r="AG43" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
@@ -6075,7 +6077,7 @@
       <c r="F44" s="4">
         <v>16</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="36">
         <f t="shared" si="0"/>
         <v>11.153846153846153</v>
       </c>
@@ -6124,53 +6126,53 @@
       <c r="W44" s="18">
         <v>1</v>
       </c>
-      <c r="X44" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="18">
-        <v>0</v>
+      <c r="X44" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y44" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC44" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="19">
         <v>0</v>
       </c>
       <c r="AE44" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="19">
         <v>0</v>
       </c>
-      <c r="AG44" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL44" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM44" s="20">
-        <v>1</v>
+      <c r="AG44" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
@@ -6189,7 +6191,7 @@
       <c r="F45" s="4">
         <v>15.5</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="36">
         <f t="shared" si="0"/>
         <v>10.961538461538463</v>
       </c>
@@ -6238,53 +6240,53 @@
       <c r="W45" s="18">
         <v>1</v>
       </c>
-      <c r="X45" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="18">
-        <v>0</v>
+      <c r="X45" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Y45" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC45" s="19">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="19">
         <v>0</v>
       </c>
       <c r="AE45" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="19">
         <v>0</v>
       </c>
-      <c r="AG45" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM45" s="20">
-        <v>1</v>
+      <c r="AG45" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
@@ -6303,7 +6305,7 @@
       <c r="F46" s="4">
         <v>14</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="36">
         <f t="shared" si="0"/>
         <v>13.269230769230768</v>
       </c>
@@ -6352,53 +6354,53 @@
       <c r="W46" s="18">
         <v>1</v>
       </c>
-      <c r="X46" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="18">
+      <c r="X46" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Y46" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="19">
         <v>0</v>
       </c>
       <c r="AC46" s="19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD46" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF46" s="19">
         <v>0</v>
       </c>
-      <c r="AG46" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI46" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="20">
-        <v>1</v>
+      <c r="AG46" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
@@ -6420,7 +6422,7 @@
       <c r="F47" s="4">
         <v>20</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="36">
         <f t="shared" si="0"/>
         <v>16.923076923076923</v>
       </c>
@@ -6469,53 +6471,53 @@
       <c r="W47" s="18">
         <v>1</v>
       </c>
-      <c r="X47" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="18">
-        <v>0</v>
+      <c r="X47" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="19">
+        <v>1</v>
       </c>
       <c r="AC47" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD47" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF47" s="19">
         <v>1</v>
       </c>
-      <c r="AG47" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH47" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK47" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL47" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM47" s="20">
-        <v>1</v>
+      <c r="AG47" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
@@ -6534,9 +6536,9 @@
       <c r="F48" s="4">
         <v>18.5</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="36">
         <f t="shared" si="0"/>
-        <v>19.615384615384613</v>
+        <v>19.73076923076923</v>
       </c>
       <c r="I48" s="14">
         <v>1</v>
@@ -6583,53 +6585,53 @@
       <c r="W48" s="18">
         <v>1</v>
       </c>
-      <c r="X48" s="18">
+      <c r="X48" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="19">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="18">
         <v>0.5</v>
       </c>
-      <c r="Y48" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="18">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK48" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL48" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM48" s="20">
-        <v>1</v>
+      <c r="AJ48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:39" x14ac:dyDescent="0.25">
@@ -6648,7 +6650,7 @@
       <c r="F49" s="4">
         <v>12.5</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="36">
         <f t="shared" si="0"/>
         <v>12.884615384615385</v>
       </c>
@@ -6697,53 +6699,53 @@
       <c r="W49" s="18">
         <v>0.75</v>
       </c>
-      <c r="X49" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="18">
-        <v>0</v>
+      <c r="X49" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC49" s="19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AD49" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="19">
         <v>0</v>
       </c>
-      <c r="AG49" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AH49" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AI49" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM49" s="20">
-        <v>1</v>
+      <c r="AG49" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH49" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:39" x14ac:dyDescent="0.25">
@@ -6765,7 +6767,7 @@
       <c r="F50" s="4">
         <v>15</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="36">
         <f t="shared" si="0"/>
         <v>13.461538461538463</v>
       </c>
@@ -6814,53 +6816,53 @@
       <c r="W50" s="18">
         <v>1</v>
       </c>
-      <c r="X50" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="18">
-        <v>0</v>
+      <c r="X50" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y50" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA50" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="19">
+        <v>0.5</v>
       </c>
       <c r="AC50" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD50" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE50" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG50" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="AH50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI50" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK50" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AL50" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM50" s="20">
-        <v>1</v>
+        <v>0.75</v>
+      </c>
+      <c r="AG50" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH50" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:39" x14ac:dyDescent="0.25">
@@ -6882,7 +6884,7 @@
       <c r="F51" s="4">
         <v>17</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="36">
         <f t="shared" si="0"/>
         <v>14.807692307692308</v>
       </c>
@@ -6931,53 +6933,53 @@
       <c r="W51" s="18">
         <v>1</v>
       </c>
-      <c r="X51" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="18">
-        <v>0</v>
+      <c r="X51" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y51" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="19">
+        <v>0.25</v>
       </c>
       <c r="AC51" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="19">
         <v>0</v>
       </c>
       <c r="AE51" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="AH51" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI51" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ51" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK51" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL51" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM51" s="20">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="AG51" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH51" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -6998,7 +7000,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="7">
+      <c r="H52" s="36">
         <f t="shared" si="0"/>
         <v>11.730769230769232</v>
       </c>
@@ -7047,53 +7049,53 @@
       <c r="W52" s="18">
         <v>1</v>
       </c>
-      <c r="X52" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="18">
+      <c r="X52" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="Y52" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="19">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="19">
         <v>0</v>
       </c>
       <c r="AC52" s="19">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="19">
         <v>0</v>
       </c>
       <c r="AE52" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AG52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="19">
         <v>0.25</v>
       </c>
-      <c r="AL52" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM52" s="20">
-        <v>1</v>
+      <c r="AG52" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH52" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:39" x14ac:dyDescent="0.25">
@@ -7112,7 +7114,7 @@
       <c r="F53" s="4">
         <v>10.5</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7161,19 +7163,19 @@
       <c r="W53" s="18">
         <v>1</v>
       </c>
-      <c r="X53" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y53" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z53" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="18">
+      <c r="X53" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="19">
         <v>1</v>
       </c>
       <c r="AC53" s="19">
@@ -7183,30 +7185,30 @@
         <v>1</v>
       </c>
       <c r="AE53" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF53" s="19">
         <v>1</v>
       </c>
-      <c r="AG53" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH53" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI53" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ53" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK53" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL53" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM53" s="20">
+      <c r="AG53" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH53" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI53" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ53" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK53" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM53" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7229,7 +7231,7 @@
       <c r="F54" s="4">
         <v>20</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="36">
         <f t="shared" si="0"/>
         <v>17.115384615384613</v>
       </c>
@@ -7278,53 +7280,53 @@
       <c r="W54" s="18">
         <v>1</v>
       </c>
-      <c r="X54" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="18">
-        <v>0</v>
+      <c r="X54" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z54" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="19">
+        <v>1</v>
       </c>
       <c r="AC54" s="19">
         <v>1</v>
       </c>
       <c r="AD54" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG54" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH54" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM54" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG54" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH54" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:39" x14ac:dyDescent="0.25">
@@ -7346,7 +7348,7 @@
       <c r="F55" s="4">
         <v>20</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7395,19 +7397,19 @@
       <c r="W55" s="18">
         <v>1</v>
       </c>
-      <c r="X55" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y55" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z55" s="18">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB55" s="18">
+      <c r="X55" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y55" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z55" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB55" s="19">
         <v>1</v>
       </c>
       <c r="AC55" s="19">
@@ -7422,25 +7424,25 @@
       <c r="AF55" s="19">
         <v>1</v>
       </c>
-      <c r="AG55" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH55" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI55" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ55" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK55" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL55" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM55" s="20">
+      <c r="AG55" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH55" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI55" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ55" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK55" s="18">
+        <v>1</v>
+      </c>
+      <c r="AL55" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM55" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7460,7 +7462,7 @@
       <c r="F56" s="4">
         <v>20</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="36">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -7509,19 +7511,19 @@
       <c r="W56" s="18">
         <v>1</v>
       </c>
-      <c r="X56" s="18">
-        <v>1</v>
-      </c>
-      <c r="Y56" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z56" s="18">
-        <v>0.75</v>
-      </c>
-      <c r="AA56" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB56" s="18">
+      <c r="X56" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z56" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="19">
         <v>1</v>
       </c>
       <c r="AC56" s="19">
@@ -7534,27 +7536,27 @@
         <v>1</v>
       </c>
       <c r="AF56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ56" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK56" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="AL56" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM56" s="20">
+        <v>0.75</v>
+      </c>
+      <c r="AG56" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH56" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI56" s="18">
+        <v>1</v>
+      </c>
+      <c r="AJ56" s="18">
+        <v>1</v>
+      </c>
+      <c r="AK56" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="AL56" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM56" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7574,7 +7576,7 @@
       <c r="F57" s="4">
         <v>18</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="36">
         <f t="shared" si="0"/>
         <v>16.346153846153847</v>
       </c>
@@ -7623,53 +7625,53 @@
       <c r="W57" s="18">
         <v>1</v>
       </c>
-      <c r="X57" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="18">
-        <v>0</v>
+      <c r="X57" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Y57" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z57" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB57" s="19">
+        <v>1</v>
       </c>
       <c r="AC57" s="19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="19">
-        <v>1</v>
-      </c>
-      <c r="AG57" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH57" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="19">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM57" s="20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH57" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:39" x14ac:dyDescent="0.25">
@@ -7691,7 +7693,7 @@
       <c r="F58" s="4">
         <v>14.5</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="36">
         <f t="shared" si="0"/>
         <v>19.807692307692307</v>
       </c>
@@ -7740,23 +7742,23 @@
       <c r="W58" s="18">
         <v>1</v>
       </c>
-      <c r="X58" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="18">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="18">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="18">
-        <v>0</v>
+      <c r="X58" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="Y58" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z58" s="19">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="19">
+        <v>1</v>
+      </c>
+      <c r="AB58" s="19">
+        <v>1</v>
       </c>
       <c r="AC58" s="19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="19">
         <v>1</v>
@@ -7767,26 +7769,26 @@
       <c r="AF58" s="19">
         <v>1</v>
       </c>
-      <c r="AG58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AH58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AI58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AJ58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AK58" s="19">
-        <v>1</v>
-      </c>
-      <c r="AL58" s="20">
-        <v>1</v>
-      </c>
-      <c r="AM58" s="20">
-        <v>1</v>
+      <c r="AG58" s="20">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="20">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:39" x14ac:dyDescent="0.25">

--- a/2018_2019/Tests/Test 2 solutions/IEP scores 20182019 test 2.xlsx
+++ b/2018_2019/Tests/Test 2 solutions/IEP scores 20182019 test 2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="11640" windowHeight="7005"/>
+    <workbookView xWindow="14880" yWindow="0" windowWidth="11640" windowHeight="7005"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -642,7 +642,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="00000000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -795,7 +795,7 @@
     <xf numFmtId="2" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1106,7 +1106,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H56" sqref="H56"/>
+      <selection pane="bottomLeft" activeCell="AG22" sqref="AG22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,39 +3585,101 @@
       <c r="G22" s="28"/>
       <c r="H22" s="36">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="33"/>
-      <c r="AH22" s="33"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
+        <v>11.538461538461537</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1</v>
+      </c>
+      <c r="J22" s="30">
+        <v>1</v>
+      </c>
+      <c r="K22" s="30">
+        <v>1</v>
+      </c>
+      <c r="L22" s="30">
+        <v>1</v>
+      </c>
+      <c r="M22" s="30">
+        <v>1</v>
+      </c>
+      <c r="N22" s="30">
+        <v>1</v>
+      </c>
+      <c r="O22" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="P22" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>1</v>
+      </c>
+      <c r="R22" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="S22" s="30">
+        <v>0</v>
+      </c>
+      <c r="T22" s="30">
+        <v>1</v>
+      </c>
+      <c r="U22" s="30">
+        <v>1</v>
+      </c>
+      <c r="V22" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="W22" s="31">
+        <v>0</v>
+      </c>
+      <c r="X22" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="Y22" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="32">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="AC22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="32">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="33">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="33">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="31">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
